--- a/Language/初始文本表.xlsx
+++ b/Language/初始文本表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wsyu/work/spec_work/ClientDefault/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wsyu/work/spec_work/Language/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36A93CB-6033-904C-8C78-53D411CDBA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE41175-544A-C14E-A331-1B65150E473F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17220" yWindow="10000" windowWidth="27440" windowHeight="16440" xr2:uid="{A506EFEE-DB45-1345-91ED-A6F2340E8B1C}"/>
+    <workbookView xWindow="24060" yWindow="8040" windowWidth="27440" windowHeight="16440" xr2:uid="{A506EFEE-DB45-1345-91ED-A6F2340E8B1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>##var#column</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -51,119 +51,99 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>alert_resource_download_size</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>alert_fetch_resource_info_failure</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>alert_update_version_list_failure</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>##</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>提示title</t>
+    <t>btn_confirm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>btn_cancel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>btn_retry</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>btn_quit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tip_res_downloading</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tip_res_version_fetching</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tip_res_manifest_fetching</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alert_res_version_failed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alert_res_manifest_failed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alert_res_download_failed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alert_res_download_size</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>网络不可用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载提示</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源信息获取失败</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源列表更新失败</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>alert.title|提示</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>alert.network_unreachable|网络不可用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>alert.resource_download_size|移动网络，需下载{0}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>alert.fetch_resource_info_failure|资源信息获取失败</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>alert.update_version_list_failure|资源列表获取失败</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>text#sep=|</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>button.confirm|确认</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>button.cancel|取消</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>button.retry|重试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>button.quit|退出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>btn_confirm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>btn_cancel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>btn_retry</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>btn_quit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tip_res_checking</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查资源</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tip.res_check|检查资源更新</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tip_res_downloading</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载资源</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tip.res_download|资源下载中</t>
+  </si>
+  <si>
+    <t>确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查最新版本</t>
+  </si>
+  <si>
+    <t>检查资源列表</t>
+  </si>
+  <si>
+    <t>资源下载中</t>
+  </si>
+  <si>
+    <t>获取版本信息失败</t>
+  </si>
+  <si>
+    <t>更新资源列表失败</t>
+  </si>
+  <si>
+    <t>下载资源失败</t>
+  </si>
+  <si>
+    <t>当前处于移动网络，需下载{0}</t>
+  </si>
+  <si>
+    <t>text#sep=@</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -217,7 +197,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -240,6 +220,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -249,12 +242,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -577,18 +571,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C17B65C-503A-1A4B-A60D-7E0DAB0FEFEF}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="35.33203125" customWidth="1"/>
     <col min="2" max="2" width="11.83203125" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" customWidth="1"/>
-    <col min="4" max="4" width="65.6640625" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" customWidth="1"/>
+    <col min="4" max="4" width="75.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -598,8 +592,8 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="D1" s="1"/>
     </row>
@@ -608,141 +602,206 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="D2" t="str">
+        <f>_xlfn.CONCAT(A2,"@",C2)</f>
+        <v>alert_title@提示</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
+      <c r="B3" t="str">
+        <f>B2</f>
+        <v>text#sep=@</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="D3" t="str">
+        <f>_xlfn.CONCAT(A3,"@",C3)</f>
+        <v>alert_network_unreachable@网络不可用</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" ref="B4:B14" si="0">B3</f>
+        <v>text#sep=@</v>
+      </c>
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
+      <c r="D4" t="str">
+        <f>_xlfn.CONCAT(A4,"@",C4)</f>
+        <v>btn_confirm@确认</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
+        <v>6</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>text#sep=@</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="D5" t="str">
+        <f>_xlfn.CONCAT(A5,"@",C5)</f>
+        <v>btn_cancel@取消</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>text#sep=@</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="D6" t="str">
+        <f>_xlfn.CONCAT(A6,"@",C6)</f>
+        <v>btn_retry@重试</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
+        <v>8</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>text#sep=@</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="str">
+        <f>_xlfn.CONCAT(A7,"@",C7)</f>
+        <v>btn_quit@退出</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>text#sep=@</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="str">
+        <f>_xlfn.CONCAT(A8,"@",C8)</f>
+        <v>tip_res_version_fetching@检查最新版本</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
+        <v>11</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>text#sep=@</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="str">
+        <f>_xlfn.CONCAT(A9,"@",C9)</f>
+        <v>tip_res_manifest_fetching@检查资源列表</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>text#sep=@</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="str">
+        <f>_xlfn.CONCAT(A10,"@",C10)</f>
+        <v>tip_res_downloading@资源下载中</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>text#sep=@</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="D11" t="str">
+        <f>_xlfn.CONCAT(A11,"@",C11)</f>
+        <v>alert_res_version_failed@获取版本信息失败</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>text#sep=@</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="D12" t="str">
+        <f>_xlfn.CONCAT(A12,"@",C12)</f>
+        <v>alert_res_manifest_failed@更新资源列表失败</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>text#sep=@</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="str">
+        <f>_xlfn.CONCAT(A13,"@",C13)</f>
+        <v>alert_res_download_failed@下载资源失败</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>text#sep=@</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="str">
+        <f>_xlfn.CONCAT(A14,"@",C14)</f>
+        <v>alert_res_download_size@当前处于移动网络，需下载{0}</v>
       </c>
     </row>
   </sheetData>

--- a/Language/初始文本表.xlsx
+++ b/Language/初始文本表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wsyu/work/spec_work/Language/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE41175-544A-C14E-A331-1B65150E473F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F360DD99-30E3-9C4A-803B-5CA53A10252A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24060" yWindow="8040" windowWidth="27440" windowHeight="16440" xr2:uid="{A506EFEE-DB45-1345-91ED-A6F2340E8B1C}"/>
+    <workbookView xWindow="12160" yWindow="8400" windowWidth="27440" windowHeight="16440" xr2:uid="{A506EFEE-DB45-1345-91ED-A6F2340E8B1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
   <si>
     <t>##var#column</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -75,14 +75,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>tip_res_version_fetching</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tip_res_manifest_fetching</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>alert_res_version_failed</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -144,6 +136,186 @@
   </si>
   <si>
     <t>text#sep=@</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tip_patch_downloading</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>补丁下载中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alert_patch_download_failed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载补丁失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tip_spec_downloading</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置更新中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>补丁更新中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alert_spec_download_failed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载配置失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tip_res_version</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tip_res_manifest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查资源版本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>launch_res_version</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>launch_res_version_fail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>launch_res_download</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>launch_res_download_fail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查资源版本失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源下载中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源下载失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>launch_patch_version_fail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>launch_patch_version</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>launch_patch_download</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>launch_patch_download_fail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>launch_spec_version</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>launch_spec_version_fail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>launch_spec_download</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>launch_spec_download_fail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查补丁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查补丁失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>补丁下载失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查配置更新</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查配置更新失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置更新失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>launch_res_manifest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>launch_res_manifest_fail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>launch_patch_manifest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>launch_patch_manifest_fail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>launch_spec_manifest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>launch_spec_manifest_fail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取资源清单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取资源清单失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取补丁列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取补丁列表失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取配置清单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取配置清单失败</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -571,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C17B65C-503A-1A4B-A60D-7E0DAB0FEFEF}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -602,13 +774,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D2" t="str">
-        <f>_xlfn.CONCAT(A2,"@",C2)</f>
+        <f t="shared" ref="D2:D36" si="0">_xlfn.CONCAT(A2,"@",C2)</f>
         <v>alert_title@提示</v>
       </c>
     </row>
@@ -621,10 +793,10 @@
         <v>text#sep=@</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" t="str">
-        <f>_xlfn.CONCAT(A3,"@",C3)</f>
+        <f t="shared" si="0"/>
         <v>alert_network_unreachable@网络不可用</v>
       </c>
     </row>
@@ -633,14 +805,14 @@
         <v>5</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" ref="B4:B14" si="0">B3</f>
+        <f t="shared" ref="B4:B36" si="1">B3</f>
         <v>text#sep=@</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" t="str">
-        <f>_xlfn.CONCAT(A4,"@",C4)</f>
+        <f t="shared" si="0"/>
         <v>btn_confirm@确认</v>
       </c>
     </row>
@@ -649,14 +821,14 @@
         <v>6</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>text#sep=@</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" t="str">
-        <f>_xlfn.CONCAT(A5,"@",C5)</f>
+        <f t="shared" si="0"/>
         <v>btn_cancel@取消</v>
       </c>
     </row>
@@ -665,14 +837,14 @@
         <v>7</v>
       </c>
       <c r="B6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>text#sep=@</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" t="str">
-        <f>_xlfn.CONCAT(A6,"@",C6)</f>
+        <f t="shared" si="0"/>
         <v>btn_retry@重试</v>
       </c>
     </row>
@@ -681,47 +853,47 @@
         <v>8</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>text#sep=@</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" t="str">
-        <f>_xlfn.CONCAT(A7,"@",C7)</f>
+        <f t="shared" si="0"/>
         <v>btn_quit@退出</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>text#sep=@</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" t="str">
-        <f>_xlfn.CONCAT(A8,"@",C8)</f>
-        <v>tip_res_version_fetching@检查最新版本</v>
+        <f t="shared" si="0"/>
+        <v>tip_res_version@检查最新版本</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>text#sep=@</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" t="str">
-        <f>_xlfn.CONCAT(A9,"@",C9)</f>
-        <v>tip_res_manifest_fetching@检查资源列表</v>
+        <f t="shared" si="0"/>
+        <v>tip_res_manifest@检查资源列表</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -729,79 +901,431 @@
         <v>9</v>
       </c>
       <c r="B10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>text#sep=@</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10" t="str">
-        <f>_xlfn.CONCAT(A10,"@",C10)</f>
+        <f t="shared" si="0"/>
         <v>tip_res_downloading@资源下载中</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>text#sep=@</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D11" t="str">
         <f>_xlfn.CONCAT(A11,"@",C11)</f>
-        <v>alert_res_version_failed@获取版本信息失败</v>
+        <v>tip_patch_downloading@补丁更新中</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>text#sep=@</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D12" t="str">
         <f>_xlfn.CONCAT(A12,"@",C12)</f>
-        <v>alert_res_manifest_failed@更新资源列表失败</v>
+        <v>tip_spec_downloading@配置更新中</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>text#sep=@</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D13" t="str">
-        <f>_xlfn.CONCAT(A13,"@",C13)</f>
-        <v>alert_res_download_failed@下载资源失败</v>
+        <f t="shared" si="0"/>
+        <v>alert_res_version_failed@获取版本信息失败</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>text#sep=@</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D14" t="str">
-        <f>_xlfn.CONCAT(A14,"@",C14)</f>
+        <f t="shared" si="0"/>
+        <v>alert_res_manifest_failed@更新资源列表失败</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="1"/>
+        <v>text#sep=@</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>alert_res_download_failed@下载资源失败</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="1"/>
+        <v>text#sep=@</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
         <v>alert_res_download_size@当前处于移动网络，需下载{0}</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17" customHeight="1">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="1"/>
+        <v>text#sep=@</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>alert_patch_download_failed@下载补丁失败</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="1"/>
+        <v>text#sep=@</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>alert_spec_download_failed@下载配置失败</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="1"/>
+        <v>text#sep=@</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>launch_res_version@检查资源版本</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="1"/>
+        <v>text#sep=@</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>launch_res_version_fail@检查资源版本失败</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="1"/>
+        <v>text#sep=@</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>launch_res_manifest@获取资源清单</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="1"/>
+        <v>text#sep=@</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>launch_res_manifest_fail@获取资源清单失败</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="1"/>
+        <v>text#sep=@</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>launch_res_download@资源下载中</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="1"/>
+        <v>text#sep=@</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>launch_res_download_fail@资源下载失败</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="1"/>
+        <v>text#sep=@</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>launch_patch_version@检查补丁</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="1"/>
+        <v>text#sep=@</v>
+      </c>
+      <c r="C26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>launch_patch_version_fail@检查补丁失败</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="1"/>
+        <v>text#sep=@</v>
+      </c>
+      <c r="C27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>launch_patch_manifest@获取补丁列表</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="1"/>
+        <v>text#sep=@</v>
+      </c>
+      <c r="C28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>launch_patch_manifest_fail@获取补丁列表失败</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="1"/>
+        <v>text#sep=@</v>
+      </c>
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>launch_patch_download@补丁下载中</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="1"/>
+        <v>text#sep=@</v>
+      </c>
+      <c r="C30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>launch_patch_download_fail@补丁下载失败</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="1"/>
+        <v>text#sep=@</v>
+      </c>
+      <c r="C31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>launch_spec_version@检查配置更新</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="1"/>
+        <v>text#sep=@</v>
+      </c>
+      <c r="C32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>launch_spec_version_fail@检查配置更新失败</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="1"/>
+        <v>text#sep=@</v>
+      </c>
+      <c r="C33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>launch_spec_manifest@获取配置清单</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="1"/>
+        <v>text#sep=@</v>
+      </c>
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>launch_spec_manifest_fail@获取配置清单失败</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="1"/>
+        <v>text#sep=@</v>
+      </c>
+      <c r="C35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>launch_spec_download@配置更新中</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="1"/>
+        <v>text#sep=@</v>
+      </c>
+      <c r="C36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>launch_spec_download_fail@配置更新失败</v>
       </c>
     </row>
   </sheetData>
